--- a/docs/副业/公考/公考资料.xlsx
+++ b/docs/副业/公考/公考资料.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27960" windowHeight="13420"/>
+    <workbookView windowWidth="27960" windowHeight="13420" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="疑难问题" sheetId="1" r:id="rId1"/>
+    <sheet name="考试时间和大致内容" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>平台</t>
   </si>
@@ -41,6 +42,42 @@
   </si>
   <si>
     <t>定向用户少，无法引流</t>
+  </si>
+  <si>
+    <t>豆瓣</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>考试内容</t>
+  </si>
+  <si>
+    <t>考试资料</t>
+  </si>
+  <si>
+    <t>国考</t>
+  </si>
+  <si>
+    <t>十一月最后一个周末</t>
+  </si>
+  <si>
+    <t>行测和申论</t>
+  </si>
+  <si>
+    <t>省考</t>
+  </si>
+  <si>
+    <t>四月，九月</t>
+  </si>
+  <si>
+    <t>事业单位</t>
+  </si>
+  <si>
+    <t>事业单位自定义</t>
+  </si>
+  <si>
+    <t>行测（多数包含公共基础）、申论，或行测、公共基础，个别考公文写作，部分加专业测试 。</t>
   </si>
 </sst>
 </file>
@@ -48,8 +85,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -63,17 +100,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -84,9 +121,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,14 +154,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -109,13 +162,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -129,17 +175,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -154,16 +192,38 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -176,31 +236,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,19 +252,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -239,13 +360,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -257,139 +390,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -406,54 +443,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -492,6 +481,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -506,6 +528,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -514,82 +551,82 @@
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,67 +635,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -979,13 +1019,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="B1:D4"/>
+  <dimension ref="B1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
     <col min="2" max="2" width="11.9017857142857" customWidth="1"/>
     <col min="3" max="3" width="32.7410714285714" customWidth="1"/>
@@ -1027,6 +1067,79 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="2:2">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="44" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="9.14285714285714" style="1"/>
+    <col min="2" max="2" width="42.8482142857143" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.9553571428571" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.2946428571429" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.14285714285714" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="2:4">
+      <c r="B1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
